--- a/PlcData.xlsx
+++ b/PlcData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Timestamp</t>
   </si>
@@ -53,6 +53,21 @@
   </si>
   <si>
     <t>2024-06-07T14:08:06-04:00</t>
+  </si>
+  <si>
+    <t>2024-06-07T14:27:02-04:00</t>
+  </si>
+  <si>
+    <t>2024-06-07T14:59:24-04:00</t>
+  </si>
+  <si>
+    <t>2024-06-07T15:05:25-04:00</t>
+  </si>
+  <si>
+    <t>2024-06-07T15:21:13-04:00</t>
+  </si>
+  <si>
+    <t>2024-06-07T15:24:04-04:00</t>
   </si>
 </sst>
 </file>
@@ -518,6 +533,130 @@
         <v>1.23</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>5170</v>
+      </c>
+      <c r="E7">
+        <v>37.632</v>
+      </c>
+      <c r="F7">
+        <v>1.23</v>
+      </c>
+      <c r="G7">
+        <v>5171.23</v>
+      </c>
+      <c r="H7">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>5174</v>
+      </c>
+      <c r="E8">
+        <v>37.632</v>
+      </c>
+      <c r="F8">
+        <v>1.23</v>
+      </c>
+      <c r="G8">
+        <v>5175.23</v>
+      </c>
+      <c r="H8">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <v>5176</v>
+      </c>
+      <c r="E9">
+        <v>37.632</v>
+      </c>
+      <c r="F9">
+        <v>1.23</v>
+      </c>
+      <c r="G9">
+        <v>5177.23</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>5180</v>
+      </c>
+      <c r="E10">
+        <v>37.632</v>
+      </c>
+      <c r="F10">
+        <v>1.23</v>
+      </c>
+      <c r="G10">
+        <v>5181.23</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>21</v>
+      </c>
+      <c r="D11">
+        <v>5184</v>
+      </c>
+      <c r="E11">
+        <v>37.632</v>
+      </c>
+      <c r="F11">
+        <v>1.23</v>
+      </c>
+      <c r="G11">
+        <v>5185.23</v>
+      </c>
+      <c r="H11">
+        <v>1.23</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>